--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/THỦY VY/Công nợ Thủy Vy15112020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/THỦY VY/Công nợ Thủy Vy15112020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -182,27 +182,6 @@
     <t>Tổng đơn Thủy Vi nhập nguyên giá ngày 18/7</t>
   </si>
   <si>
-    <t>Đại lý ký HĐ 300 triệu</t>
-  </si>
-  <si>
-    <t>Doanh thu theo Hợp đồng</t>
-  </si>
-  <si>
-    <t>Đã chuyển cho đại lý</t>
-  </si>
-  <si>
-    <t>Công ty nhập về</t>
-  </si>
-  <si>
-    <t>Tổng nhập - Tổng xuất (trả về công ty)</t>
-  </si>
-  <si>
-    <t>Kết luận:</t>
-  </si>
-  <si>
-    <t>Công ty còn phải trả số hàng là</t>
-  </si>
-  <si>
     <t>DOANH THU ĐẠI LÝ THỦY VI ĐẾN 15/11/2020</t>
   </si>
   <si>
@@ -221,9 +200,6 @@
     <t>Công ty cần chuyển cho đại lý</t>
   </si>
   <si>
-    <t>Số hàng (275.000.000+275.000.000*50%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ghi chú: </t>
   </si>
   <si>
@@ -249,6 +225,9 @@
   </si>
   <si>
     <t>Chưa tìm thấy số HĐ</t>
+  </si>
+  <si>
+    <t>Số hàng (257.000.000+257.000.000*50%)</t>
   </si>
 </sst>
 </file>
@@ -256,13 +235,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -615,11 +594,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -659,7 +638,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -681,10 +660,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -694,11 +673,11 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -707,19 +686,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -728,16 +707,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -746,25 +725,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -773,80 +752,80 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -864,43 +843,43 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -910,10 +889,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,10 +908,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,10 +941,150 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -974,148 +1093,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1127,13 +1132,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1151,41 +1156,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="14" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="14" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1469,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DA72"/>
+  <dimension ref="A1:DA62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,45 +1488,45 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="174" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="175"/>
+      <c r="A3" s="140" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="141"/>
     </row>
     <row r="4" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="176" t="s">
+      <c r="C4" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="176" t="s">
+      <c r="D4" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="177" t="s">
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="176"/>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
+      <c r="A5" s="142"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="59" t="s">
         <v>7</v>
       </c>
@@ -1577,22 +1550,22 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A6" s="143">
+      <c r="A6" s="156">
         <v>1</v>
       </c>
-      <c r="B6" s="141">
+      <c r="B6" s="153">
         <v>43708</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="143" t="s">
+      <c r="D6" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="146" t="s">
+      <c r="E6" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="159" t="s">
+      <c r="F6" s="165" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="61" t="s">
@@ -1610,16 +1583,16 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="149"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="149" t="s">
+      <c r="A7" s="157"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="149" t="s">
+      <c r="D7" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="147"/>
-      <c r="F7" s="160"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="166"/>
       <c r="G7" s="64" t="s">
         <v>19</v>
       </c>
@@ -1635,16 +1608,16 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="149"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="149" t="s">
+      <c r="A8" s="157"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="149" t="s">
+      <c r="D8" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="160"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="166"/>
       <c r="G8" s="64" t="s">
         <v>20</v>
       </c>
@@ -1660,16 +1633,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="149"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="149" t="s">
+      <c r="A9" s="157"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="149" t="s">
+      <c r="D9" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="147"/>
-      <c r="F9" s="160"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="166"/>
       <c r="G9" s="64" t="s">
         <v>21</v>
       </c>
@@ -1685,16 +1658,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="149"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="149" t="s">
+      <c r="A10" s="157"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="149" t="s">
+      <c r="D10" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="160"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="166"/>
       <c r="G10" s="64" t="s">
         <v>22</v>
       </c>
@@ -1710,16 +1683,16 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="149"/>
-      <c r="B11" s="142"/>
-      <c r="C11" s="149" t="s">
+      <c r="A11" s="157"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="149" t="s">
+      <c r="D11" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="160"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="166"/>
       <c r="G11" s="64" t="s">
         <v>23</v>
       </c>
@@ -1735,16 +1708,16 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="149"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="149" t="s">
+      <c r="A12" s="157"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="160"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="166"/>
       <c r="G12" s="64" t="s">
         <v>24</v>
       </c>
@@ -1760,16 +1733,16 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="149"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="149" t="s">
+      <c r="A13" s="157"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="149" t="s">
+      <c r="D13" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="160"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="166"/>
       <c r="G13" s="64" t="s">
         <v>25</v>
       </c>
@@ -1786,15 +1759,15 @@
     </row>
     <row r="14" spans="1:10" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="158"/>
-      <c r="B14" s="132"/>
+      <c r="B14" s="155"/>
       <c r="C14" s="158" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="148"/>
-      <c r="F14" s="161"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="167"/>
       <c r="G14" s="67" t="s">
         <v>26</v>
       </c>
@@ -1811,13 +1784,13 @@
     </row>
     <row r="15" spans="1:10" s="74" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="70"/>
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="71"/>
       <c r="H15" s="71"/>
       <c r="I15" s="72"/>
@@ -1827,19 +1800,19 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="139">
+      <c r="A16" s="159">
         <v>2</v>
       </c>
-      <c r="B16" s="141">
+      <c r="B16" s="153">
         <v>43717</v>
       </c>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="162" t="s">
+      <c r="E16" s="168" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="75"/>
@@ -1857,17 +1830,17 @@
       </c>
     </row>
     <row r="17" spans="1:105" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="145"/>
-      <c r="B17" s="142" t="s">
+      <c r="A17" s="160"/>
+      <c r="B17" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="145" t="s">
+      <c r="C17" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="145" t="s">
+      <c r="D17" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="163"/>
+      <c r="E17" s="169"/>
       <c r="F17" s="79"/>
       <c r="G17" s="80" t="s">
         <v>20</v>
@@ -1883,17 +1856,17 @@
       </c>
     </row>
     <row r="18" spans="1:105" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="140"/>
-      <c r="B18" s="142" t="s">
+      <c r="A18" s="161"/>
+      <c r="B18" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="140" t="s">
+      <c r="D18" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="164"/>
+      <c r="E18" s="170"/>
       <c r="F18" s="81"/>
       <c r="G18" s="82" t="s">
         <v>22</v>
@@ -1910,13 +1883,13 @@
     </row>
     <row r="19" spans="1:105" s="74" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="83"/>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
       <c r="G19" s="84"/>
       <c r="H19" s="85"/>
       <c r="I19" s="86"/>
@@ -1955,13 +1928,13 @@
     </row>
     <row r="21" spans="1:105" s="74" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95"/>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
       <c r="G21" s="96"/>
       <c r="H21" s="97"/>
       <c r="I21" s="98"/>
@@ -1971,20 +1944,20 @@
       </c>
     </row>
     <row r="22" spans="1:105" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A22" s="139">
+      <c r="A22" s="159">
         <v>4</v>
       </c>
-      <c r="B22" s="141">
+      <c r="B22" s="153">
         <v>43719</v>
       </c>
-      <c r="C22" s="139" t="s">
+      <c r="C22" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="139" t="s">
+      <c r="D22" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
       <c r="G22" s="99" t="s">
         <v>35</v>
       </c>
@@ -1999,16 +1972,16 @@
       </c>
     </row>
     <row r="23" spans="1:105" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="140"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="140" t="s">
+      <c r="A23" s="161"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="140" t="s">
+      <c r="D23" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
       <c r="G23" s="82" t="s">
         <v>36</v>
       </c>
@@ -2025,13 +1998,13 @@
     </row>
     <row r="24" spans="1:105" s="74" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="102"/>
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
       <c r="G24" s="103"/>
       <c r="H24" s="71"/>
       <c r="I24" s="73"/>
@@ -2136,20 +2109,20 @@
       <c r="DA24" s="18"/>
     </row>
     <row r="25" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="143">
+      <c r="A25" s="156">
         <v>5</v>
       </c>
-      <c r="B25" s="141">
+      <c r="B25" s="153">
         <v>43796</v>
       </c>
-      <c r="C25" s="139" t="s">
+      <c r="C25" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="146" t="s">
+      <c r="D25" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="153"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="175"/>
       <c r="G25" s="77" t="s">
         <v>32</v>
       </c>
@@ -2260,12 +2233,12 @@
       <c r="DA25" s="74"/>
     </row>
     <row r="26" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="149"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="154"/>
+      <c r="A26" s="157"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="176"/>
       <c r="G26" s="64" t="s">
         <v>35</v>
       </c>
@@ -2376,12 +2349,12 @@
       <c r="DA26" s="18"/>
     </row>
     <row r="27" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="149"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="154"/>
+      <c r="A27" s="157"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="176"/>
       <c r="G27" s="64" t="s">
         <v>38</v>
       </c>
@@ -2492,12 +2465,12 @@
       <c r="DA27" s="74"/>
     </row>
     <row r="28" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="149"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="154"/>
+      <c r="A28" s="157"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="176"/>
       <c r="G28" s="64" t="s">
         <v>18</v>
       </c>
@@ -2608,12 +2581,12 @@
       <c r="DA28" s="18"/>
     </row>
     <row r="29" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="149"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="154"/>
+      <c r="A29" s="157"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="176"/>
       <c r="G29" s="64" t="s">
         <v>20</v>
       </c>
@@ -2724,12 +2697,12 @@
       <c r="DA29" s="74"/>
     </row>
     <row r="30" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="149"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="154"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="176"/>
       <c r="G30" s="64" t="s">
         <v>22</v>
       </c>
@@ -2840,12 +2813,12 @@
       <c r="DA30" s="18"/>
     </row>
     <row r="31" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="149"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="154"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="176"/>
       <c r="G31" s="64" t="s">
         <v>36</v>
       </c>
@@ -2956,12 +2929,12 @@
       <c r="DA31" s="74"/>
     </row>
     <row r="32" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="144"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="155"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="177"/>
       <c r="G32" s="108" t="s">
         <v>23</v>
       </c>
@@ -3073,13 +3046,13 @@
     </row>
     <row r="33" spans="1:105" s="111" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A33" s="110"/>
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
       <c r="G33" s="71"/>
       <c r="H33" s="71"/>
       <c r="I33" s="72"/>
@@ -3309,13 +3282,13 @@
     </row>
     <row r="35" spans="1:105" s="111" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="117"/>
-      <c r="B35" s="130" t="s">
+      <c r="B35" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
       <c r="G35" s="71"/>
       <c r="H35" s="71"/>
       <c r="I35" s="72"/>
@@ -3545,13 +3518,13 @@
     </row>
     <row r="37" spans="1:105" s="111" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="117"/>
-      <c r="B37" s="130" t="s">
+      <c r="B37" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
       <c r="I37" s="72"/>
@@ -3656,20 +3629,20 @@
       <c r="DA37" s="74"/>
     </row>
     <row r="38" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="143">
+      <c r="A38" s="156">
         <v>8</v>
       </c>
-      <c r="B38" s="131">
+      <c r="B38" s="182">
         <v>43525</v>
       </c>
-      <c r="C38" s="141" t="s">
+      <c r="C38" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="141" t="s">
+      <c r="D38" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
       <c r="G38" s="64" t="s">
         <v>18</v>
       </c>
@@ -3780,14 +3753,14 @@
       <c r="DA38" s="74"/>
     </row>
     <row r="39" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="144"/>
-      <c r="B39" s="132"/>
-      <c r="C39" s="132"/>
-      <c r="D39" s="132" t="s">
+      <c r="A39" s="171"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
+      <c r="E39" s="179"/>
+      <c r="F39" s="179"/>
       <c r="G39" s="108" t="s">
         <v>36</v>
       </c>
@@ -3899,13 +3872,13 @@
     </row>
     <row r="40" spans="1:105" s="111" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="121"/>
-      <c r="B40" s="130" t="s">
+      <c r="B40" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="139"/>
       <c r="G40" s="71"/>
       <c r="H40" s="71"/>
       <c r="I40" s="72"/>
@@ -4135,13 +4108,13 @@
     </row>
     <row r="42" spans="1:105" s="111" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="121"/>
-      <c r="B42" s="130" t="s">
+      <c r="B42" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
       <c r="G42" s="71"/>
       <c r="H42" s="71"/>
       <c r="I42" s="72"/>
@@ -4246,17 +4219,17 @@
       <c r="DA42" s="74"/>
     </row>
     <row r="43" spans="1:105" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="165">
+      <c r="A43" s="144">
         <v>493</v>
       </c>
-      <c r="B43" s="168">
+      <c r="B43" s="147">
         <v>43654</v>
       </c>
-      <c r="C43" s="171"/>
-      <c r="D43" s="171" t="s">
+      <c r="C43" s="150"/>
+      <c r="D43" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="171"/>
+      <c r="E43" s="150"/>
       <c r="G43" s="35" t="s">
         <v>35</v>
       </c>
@@ -4272,11 +4245,11 @@
       </c>
     </row>
     <row r="44" spans="1:105" s="37" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="166"/>
-      <c r="B44" s="169"/>
-      <c r="C44" s="172"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="172"/>
+      <c r="A44" s="145"/>
+      <c r="B44" s="148"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
       <c r="G44" s="38" t="s">
         <v>18</v>
       </c>
@@ -4292,11 +4265,11 @@
       </c>
     </row>
     <row r="45" spans="1:105" s="37" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="166"/>
-      <c r="B45" s="169"/>
-      <c r="C45" s="172"/>
-      <c r="D45" s="172"/>
-      <c r="E45" s="172"/>
+      <c r="A45" s="145"/>
+      <c r="B45" s="148"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="151"/>
       <c r="G45" s="38" t="s">
         <v>20</v>
       </c>
@@ -4312,11 +4285,11 @@
       </c>
     </row>
     <row r="46" spans="1:105" s="37" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="166"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="172"/>
-      <c r="D46" s="172"/>
-      <c r="E46" s="172"/>
+      <c r="A46" s="145"/>
+      <c r="B46" s="148"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
       <c r="G46" s="38" t="s">
         <v>22</v>
       </c>
@@ -4332,11 +4305,11 @@
       </c>
     </row>
     <row r="47" spans="1:105" s="37" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="166"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="172"/>
-      <c r="D47" s="172"/>
-      <c r="E47" s="172"/>
+      <c r="A47" s="145"/>
+      <c r="B47" s="148"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="151"/>
       <c r="G47" s="38" t="s">
         <v>36</v>
       </c>
@@ -4352,11 +4325,11 @@
       </c>
     </row>
     <row r="48" spans="1:105" s="37" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="166"/>
-      <c r="B48" s="169"/>
-      <c r="C48" s="172"/>
-      <c r="D48" s="172"/>
-      <c r="E48" s="172"/>
+      <c r="A48" s="145"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="151"/>
       <c r="G48" s="38" t="s">
         <v>25</v>
       </c>
@@ -4372,11 +4345,11 @@
       </c>
     </row>
     <row r="49" spans="1:105" s="37" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="167"/>
-      <c r="B49" s="170"/>
-      <c r="C49" s="173"/>
-      <c r="D49" s="173"/>
-      <c r="E49" s="173"/>
+      <c r="A49" s="146"/>
+      <c r="B49" s="149"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
       <c r="G49" s="40" t="s">
         <v>50</v>
       </c>
@@ -4393,13 +4366,13 @@
     </row>
     <row r="50" spans="1:105" s="111" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="70"/>
-      <c r="B50" s="130" t="s">
+      <c r="B50" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
       <c r="G50" s="124"/>
       <c r="H50" s="71"/>
       <c r="I50" s="71"/>
@@ -4503,61 +4476,61 @@
       <c r="CZ50" s="74"/>
       <c r="DA50" s="74"/>
     </row>
-    <row r="51" spans="1:105" s="191" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A51" s="194">
+    <row r="51" spans="1:105" s="128" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A51" s="135">
         <v>822</v>
       </c>
-      <c r="B51" s="195">
+      <c r="B51" s="137">
         <v>44113</v>
       </c>
-      <c r="C51" s="194"/>
-      <c r="D51" s="194" t="s">
+      <c r="C51" s="135"/>
+      <c r="D51" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="194"/>
-      <c r="G51" s="189" t="s">
+      <c r="E51" s="135"/>
+      <c r="G51" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="189">
+      <c r="H51" s="126">
         <v>12</v>
       </c>
-      <c r="I51" s="190">
+      <c r="I51" s="127">
         <v>225000</v>
       </c>
-      <c r="J51" s="190">
+      <c r="J51" s="127">
         <f t="shared" ref="J51:J52" si="3">H51*I51</f>
         <v>2700000</v>
       </c>
     </row>
-    <row r="52" spans="1:105" s="191" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="196"/>
-      <c r="B52" s="197"/>
-      <c r="C52" s="196"/>
-      <c r="D52" s="196"/>
-      <c r="E52" s="196"/>
-      <c r="G52" s="192" t="s">
+    <row r="52" spans="1:105" s="128" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="136"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="G52" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="192">
+      <c r="H52" s="129">
         <v>12</v>
       </c>
-      <c r="I52" s="193">
+      <c r="I52" s="130">
         <v>455000</v>
       </c>
-      <c r="J52" s="193">
+      <c r="J52" s="130">
         <f t="shared" si="3"/>
         <v>5460000</v>
       </c>
     </row>
     <row r="53" spans="1:105" s="111" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="70"/>
-      <c r="B53" s="130" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="130"/>
-      <c r="D53" s="130"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
+      <c r="B53" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="139"/>
       <c r="G53" s="125"/>
       <c r="H53" s="71"/>
       <c r="I53" s="71"/>
@@ -4662,11 +4635,11 @@
       <c r="DA53" s="74"/>
     </row>
     <row r="54" spans="1:105" s="15" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="133" t="s">
+      <c r="A54" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="134"/>
-      <c r="C54" s="135"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="185"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -4774,9 +4747,9 @@
       <c r="DA54" s="18"/>
     </row>
     <row r="55" spans="1:105" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="136"/>
-      <c r="B55" s="137"/>
-      <c r="C55" s="138"/>
+      <c r="A55" s="186"/>
+      <c r="B55" s="187"/>
+      <c r="C55" s="188"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
@@ -5571,363 +5544,45 @@
       <c r="CZ62" s="18"/>
       <c r="DA62" s="18"/>
     </row>
-    <row r="63" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K63" s="74"/>
-      <c r="L63" s="74"/>
-      <c r="M63" s="74"/>
-      <c r="N63" s="74"/>
-      <c r="O63" s="74"/>
-      <c r="P63" s="74"/>
-      <c r="Q63" s="74"/>
-      <c r="R63" s="74"/>
-      <c r="S63" s="74"/>
-      <c r="T63" s="74"/>
-      <c r="U63" s="74"/>
-      <c r="V63" s="74"/>
-      <c r="W63" s="74"/>
-      <c r="X63" s="74"/>
-      <c r="Y63" s="74"/>
-      <c r="Z63" s="74"/>
-      <c r="AA63" s="74"/>
-      <c r="AB63" s="74"/>
-      <c r="AC63" s="74"/>
-      <c r="AD63" s="74"/>
-      <c r="AE63" s="74"/>
-      <c r="AF63" s="74"/>
-      <c r="AG63" s="74"/>
-      <c r="AH63" s="74"/>
-      <c r="AI63" s="74"/>
-      <c r="AJ63" s="74"/>
-      <c r="AK63" s="74"/>
-      <c r="AL63" s="74"/>
-      <c r="AM63" s="74"/>
-      <c r="AN63" s="74"/>
-      <c r="AO63" s="74"/>
-      <c r="AP63" s="74"/>
-      <c r="AQ63" s="74"/>
-      <c r="AR63" s="74"/>
-      <c r="AS63" s="74"/>
-      <c r="AT63" s="74"/>
-      <c r="AU63" s="74"/>
-      <c r="AV63" s="74"/>
-      <c r="AW63" s="74"/>
-      <c r="AX63" s="74"/>
-      <c r="AY63" s="74"/>
-      <c r="AZ63" s="74"/>
-      <c r="BA63" s="74"/>
-      <c r="BB63" s="74"/>
-      <c r="BC63" s="74"/>
-      <c r="BD63" s="74"/>
-      <c r="BE63" s="74"/>
-      <c r="BF63" s="74"/>
-      <c r="BG63" s="74"/>
-      <c r="BH63" s="74"/>
-      <c r="BI63" s="74"/>
-      <c r="BJ63" s="74"/>
-      <c r="BK63" s="74"/>
-      <c r="BL63" s="74"/>
-      <c r="BM63" s="74"/>
-      <c r="BN63" s="74"/>
-      <c r="BO63" s="74"/>
-      <c r="BP63" s="74"/>
-      <c r="BQ63" s="74"/>
-      <c r="BR63" s="74"/>
-      <c r="BS63" s="74"/>
-      <c r="BT63" s="74"/>
-      <c r="BU63" s="74"/>
-      <c r="BV63" s="74"/>
-      <c r="BW63" s="74"/>
-      <c r="BX63" s="74"/>
-      <c r="BY63" s="74"/>
-      <c r="BZ63" s="74"/>
-      <c r="CA63" s="74"/>
-      <c r="CB63" s="74"/>
-      <c r="CC63" s="74"/>
-      <c r="CD63" s="74"/>
-      <c r="CE63" s="74"/>
-      <c r="CF63" s="74"/>
-      <c r="CG63" s="74"/>
-      <c r="CH63" s="74"/>
-      <c r="CI63" s="74"/>
-      <c r="CJ63" s="74"/>
-      <c r="CK63" s="74"/>
-      <c r="CL63" s="74"/>
-      <c r="CM63" s="74"/>
-      <c r="CN63" s="74"/>
-      <c r="CO63" s="74"/>
-      <c r="CP63" s="74"/>
-      <c r="CQ63" s="74"/>
-      <c r="CR63" s="74"/>
-      <c r="CS63" s="74"/>
-      <c r="CT63" s="74"/>
-      <c r="CU63" s="74"/>
-      <c r="CV63" s="74"/>
-      <c r="CW63" s="74"/>
-      <c r="CX63" s="74"/>
-      <c r="CY63" s="74"/>
-      <c r="CZ63" s="74"/>
-      <c r="DA63" s="74"/>
-    </row>
-    <row r="64" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="127">
-        <f>300000000+300000000*(1-50%)</f>
-        <v>450000000</v>
-      </c>
-      <c r="F64" s="127"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="18"/>
-      <c r="V64" s="18"/>
-      <c r="W64" s="18"/>
-      <c r="X64" s="18"/>
-      <c r="Y64" s="18"/>
-      <c r="Z64" s="18"/>
-      <c r="AA64" s="18"/>
-      <c r="AB64" s="18"/>
-      <c r="AC64" s="18"/>
-      <c r="AD64" s="18"/>
-      <c r="AE64" s="18"/>
-      <c r="AF64" s="18"/>
-      <c r="AG64" s="18"/>
-      <c r="AH64" s="18"/>
-      <c r="AI64" s="18"/>
-      <c r="AJ64" s="18"/>
-      <c r="AK64" s="18"/>
-      <c r="AL64" s="18"/>
-      <c r="AM64" s="18"/>
-      <c r="AN64" s="18"/>
-      <c r="AO64" s="18"/>
-      <c r="AP64" s="18"/>
-      <c r="AQ64" s="18"/>
-      <c r="AR64" s="18"/>
-      <c r="AS64" s="18"/>
-      <c r="AT64" s="18"/>
-      <c r="AU64" s="18"/>
-      <c r="AV64" s="18"/>
-      <c r="AW64" s="18"/>
-      <c r="AX64" s="18"/>
-      <c r="AY64" s="18"/>
-      <c r="AZ64" s="18"/>
-      <c r="BA64" s="18"/>
-      <c r="BB64" s="18"/>
-      <c r="BC64" s="18"/>
-      <c r="BD64" s="18"/>
-      <c r="BE64" s="18"/>
-      <c r="BF64" s="18"/>
-      <c r="BG64" s="18"/>
-      <c r="BH64" s="18"/>
-      <c r="BI64" s="18"/>
-      <c r="BJ64" s="18"/>
-      <c r="BK64" s="18"/>
-      <c r="BL64" s="18"/>
-      <c r="BM64" s="18"/>
-      <c r="BN64" s="18"/>
-      <c r="BO64" s="18"/>
-      <c r="BP64" s="18"/>
-      <c r="BQ64" s="18"/>
-      <c r="BR64" s="18"/>
-      <c r="BS64" s="18"/>
-      <c r="BT64" s="18"/>
-      <c r="BU64" s="18"/>
-      <c r="BV64" s="18"/>
-      <c r="BW64" s="18"/>
-      <c r="BX64" s="18"/>
-      <c r="BY64" s="18"/>
-      <c r="BZ64" s="18"/>
-      <c r="CA64" s="18"/>
-      <c r="CB64" s="18"/>
-      <c r="CC64" s="18"/>
-      <c r="CD64" s="18"/>
-      <c r="CE64" s="18"/>
-      <c r="CF64" s="18"/>
-      <c r="CG64" s="18"/>
-      <c r="CH64" s="18"/>
-      <c r="CI64" s="18"/>
-      <c r="CJ64" s="18"/>
-      <c r="CK64" s="18"/>
-      <c r="CL64" s="18"/>
-      <c r="CM64" s="18"/>
-      <c r="CN64" s="18"/>
-      <c r="CO64" s="18"/>
-      <c r="CP64" s="18"/>
-      <c r="CQ64" s="18"/>
-      <c r="CR64" s="18"/>
-      <c r="CS64" s="18"/>
-      <c r="CT64" s="18"/>
-      <c r="CU64" s="18"/>
-      <c r="CV64" s="18"/>
-      <c r="CW64" s="18"/>
-      <c r="CX64" s="18"/>
-      <c r="CY64" s="18"/>
-      <c r="CZ64" s="18"/>
-      <c r="DA64" s="18"/>
-    </row>
-    <row r="65" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E65" s="126">
-        <f>J54</f>
-        <v>369330000</v>
-      </c>
-      <c r="F65" s="126"/>
-      <c r="K65" s="74"/>
-      <c r="L65" s="74"/>
-      <c r="M65" s="74"/>
-      <c r="N65" s="74"/>
-      <c r="O65" s="74"/>
-      <c r="P65" s="74"/>
-      <c r="Q65" s="74"/>
-      <c r="R65" s="74"/>
-      <c r="S65" s="74"/>
-      <c r="T65" s="74"/>
-      <c r="U65" s="74"/>
-      <c r="V65" s="74"/>
-      <c r="W65" s="74"/>
-      <c r="X65" s="74"/>
-      <c r="Y65" s="74"/>
-      <c r="Z65" s="74"/>
-      <c r="AA65" s="74"/>
-      <c r="AB65" s="74"/>
-      <c r="AC65" s="74"/>
-      <c r="AD65" s="74"/>
-      <c r="AE65" s="74"/>
-      <c r="AF65" s="74"/>
-      <c r="AG65" s="74"/>
-      <c r="AH65" s="74"/>
-      <c r="AI65" s="74"/>
-      <c r="AJ65" s="74"/>
-      <c r="AK65" s="74"/>
-      <c r="AL65" s="74"/>
-      <c r="AM65" s="74"/>
-      <c r="AN65" s="74"/>
-      <c r="AO65" s="74"/>
-      <c r="AP65" s="74"/>
-      <c r="AQ65" s="74"/>
-      <c r="AR65" s="74"/>
-      <c r="AS65" s="74"/>
-      <c r="AT65" s="74"/>
-      <c r="AU65" s="74"/>
-      <c r="AV65" s="74"/>
-      <c r="AW65" s="74"/>
-      <c r="AX65" s="74"/>
-      <c r="AY65" s="74"/>
-      <c r="AZ65" s="74"/>
-      <c r="BA65" s="74"/>
-      <c r="BB65" s="74"/>
-      <c r="BC65" s="74"/>
-      <c r="BD65" s="74"/>
-      <c r="BE65" s="74"/>
-      <c r="BF65" s="74"/>
-      <c r="BG65" s="74"/>
-      <c r="BH65" s="74"/>
-      <c r="BI65" s="74"/>
-      <c r="BJ65" s="74"/>
-      <c r="BK65" s="74"/>
-      <c r="BL65" s="74"/>
-      <c r="BM65" s="74"/>
-      <c r="BN65" s="74"/>
-      <c r="BO65" s="74"/>
-      <c r="BP65" s="74"/>
-      <c r="BQ65" s="74"/>
-      <c r="BR65" s="74"/>
-      <c r="BS65" s="74"/>
-      <c r="BT65" s="74"/>
-      <c r="BU65" s="74"/>
-      <c r="BV65" s="74"/>
-      <c r="BW65" s="74"/>
-      <c r="BX65" s="74"/>
-      <c r="BY65" s="74"/>
-      <c r="BZ65" s="74"/>
-      <c r="CA65" s="74"/>
-      <c r="CB65" s="74"/>
-      <c r="CC65" s="74"/>
-      <c r="CD65" s="74"/>
-      <c r="CE65" s="74"/>
-      <c r="CF65" s="74"/>
-      <c r="CG65" s="74"/>
-      <c r="CH65" s="74"/>
-      <c r="CI65" s="74"/>
-      <c r="CJ65" s="74"/>
-      <c r="CK65" s="74"/>
-      <c r="CL65" s="74"/>
-      <c r="CM65" s="74"/>
-      <c r="CN65" s="74"/>
-      <c r="CO65" s="74"/>
-      <c r="CP65" s="74"/>
-      <c r="CQ65" s="74"/>
-      <c r="CR65" s="74"/>
-      <c r="CS65" s="74"/>
-      <c r="CT65" s="74"/>
-      <c r="CU65" s="74"/>
-      <c r="CV65" s="74"/>
-      <c r="CW65" s="74"/>
-      <c r="CX65" s="74"/>
-      <c r="CY65" s="74"/>
-      <c r="CZ65" s="74"/>
-      <c r="DA65" s="74"/>
-    </row>
-    <row r="66" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" s="126">
-        <f>'HÀNG TRẢ VỀ'!G21</f>
-        <v>92190000</v>
-      </c>
-      <c r="F66" s="126"/>
-    </row>
-    <row r="67" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E67" s="127">
-        <f>E65-E66</f>
-        <v>277140000</v>
-      </c>
-      <c r="F67" s="127"/>
-    </row>
-    <row r="69" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="2:105" x14ac:dyDescent="0.25">
-      <c r="B70" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="127">
-        <f>E64-E67</f>
-        <v>172860000</v>
-      </c>
-      <c r="F70" s="127"/>
-    </row>
-    <row r="72" spans="2:105" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
+  <mergeCells count="58">
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="E25:E32"/>
+    <mergeCell ref="F25:F32"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="E6:E14"/>
+    <mergeCell ref="F6:F14"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
     <mergeCell ref="B53:F53"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:A5"/>
@@ -5944,48 +5599,11 @@
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="C6:C14"/>
     <mergeCell ref="D6:D14"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="E6:E14"/>
-    <mergeCell ref="F6:F14"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="E25:E32"/>
-    <mergeCell ref="F25:F32"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.27" top="0.22" bottom="0.39" header="0.12" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
@@ -6028,36 +5646,36 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="175"/>
+      <c r="A4" s="140" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="141"/>
     </row>
     <row r="5" spans="1:7" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="187" t="s">
+      <c r="B5" s="201" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="188" t="s">
+      <c r="D5" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
     </row>
     <row r="6" spans="1:7" s="12" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="187"/>
-      <c r="B6" s="187"/>
+      <c r="A6" s="201"/>
+      <c r="B6" s="201"/>
       <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
@@ -6075,8 +5693,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="143" t="s">
-        <v>75</v>
+      <c r="A7" s="156" t="s">
+        <v>67</v>
       </c>
       <c r="B7" s="88">
         <v>43790</v>
@@ -6098,7 +5716,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="149"/>
+      <c r="A8" s="157"/>
       <c r="B8" s="88">
         <v>43793</v>
       </c>
@@ -6120,7 +5738,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="149"/>
+      <c r="A9" s="157"/>
       <c r="B9" s="88">
         <v>43854</v>
       </c>
@@ -6133,7 +5751,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="149"/>
+      <c r="A10" s="157"/>
       <c r="B10" s="88">
         <v>43868</v>
       </c>
@@ -6146,7 +5764,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="149"/>
+      <c r="A11" s="157"/>
       <c r="B11" s="88">
         <v>43881</v>
       </c>
@@ -6159,7 +5777,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
+      <c r="A12" s="157"/>
       <c r="B12" s="88">
         <v>43888</v>
       </c>
@@ -6217,13 +5835,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="178">
+      <c r="A15" s="192">
         <v>494</v>
       </c>
-      <c r="B15" s="181">
+      <c r="B15" s="195">
         <v>44020</v>
       </c>
-      <c r="C15" s="184" t="s">
+      <c r="C15" s="198" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="42" t="s">
@@ -6235,14 +5853,14 @@
       <c r="F15" s="43">
         <v>235000</v>
       </c>
-      <c r="G15" s="199">
+      <c r="G15" s="189">
         <v>6600000</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="179"/>
-      <c r="B16" s="182"/>
-      <c r="C16" s="185"/>
+      <c r="A16" s="193"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="199"/>
       <c r="D16" s="45" t="s">
         <v>19</v>
       </c>
@@ -6252,12 +5870,12 @@
       <c r="F16" s="46">
         <v>245000</v>
       </c>
-      <c r="G16" s="200"/>
+      <c r="G16" s="190"/>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
-      <c r="B17" s="183"/>
-      <c r="C17" s="186"/>
+      <c r="A17" s="194"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="200"/>
       <c r="D17" s="47" t="s">
         <v>21</v>
       </c>
@@ -6267,7 +5885,7 @@
       <c r="F17" s="48">
         <v>255000</v>
       </c>
-      <c r="G17" s="201"/>
+      <c r="G17" s="191"/>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53">
@@ -6296,7 +5914,7 @@
       <c r="A19" s="53">
         <v>679</v>
       </c>
-      <c r="B19" s="198">
+      <c r="B19" s="131">
         <v>44108</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -6320,7 +5938,7 @@
       <c r="A20" s="53">
         <v>829</v>
       </c>
-      <c r="B20" s="198">
+      <c r="B20" s="131">
         <v>44124</v>
       </c>
       <c r="C20" s="53" t="s">
@@ -6397,15 +6015,15 @@
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:G5"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="1.08" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6417,7 +6035,7 @@
   <dimension ref="A6:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6426,85 +6044,85 @@
     <col min="2" max="2" width="16.7109375" style="4" customWidth="1"/>
     <col min="3" max="5" width="9.140625" style="4"/>
     <col min="6" max="6" width="29.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="203" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="132" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="202" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="202"/>
+      <c r="A6" s="203" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="203"/>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F6" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="133" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="204" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="205">
-        <f>275000000+275000000*50%</f>
-        <v>412500000</v>
+      <c r="B7" s="134">
+        <f>257000000+257000000*50%</f>
+        <v>385500000</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="203">
+        <v>61</v>
+      </c>
+      <c r="G7" s="132">
         <v>361130000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="204" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="205">
+      <c r="A8" s="133" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="134">
         <f>'DOANH THU'!J54</f>
         <v>369330000</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="203">
+        <v>62</v>
+      </c>
+      <c r="G8" s="132">
         <v>86370000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="204" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="205">
+      <c r="A9" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="134">
         <f>'HÀNG TRẢ VỀ'!G21</f>
         <v>92190000</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="204" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="205">
+      <c r="A10" s="133" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="134">
         <f>B7-B8+B9</f>
-        <v>135360000</v>
+        <v>108360000</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="203">
+        <v>64</v>
+      </c>
+      <c r="G10" s="132">
         <f>'DOANH THU'!J53</f>
         <v>8160000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="203">
+        <v>65</v>
+      </c>
+      <c r="G11" s="132">
         <f>'HÀNG TRẢ VỀ'!G20</f>
         <v>5820000</v>
       </c>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/THỦY VY/Công nợ Thủy Vy15112020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/THỦY VY/Công nợ Thủy Vy15112020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DOANH THU" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -958,135 +958,153 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1096,23 +1114,14 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1149,15 +1158,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DA62"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,45 +1488,45 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="141"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="138"/>
     </row>
     <row r="4" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143" t="s">
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="142"/>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
       <c r="D5" s="59" t="s">
         <v>7</v>
       </c>
@@ -1550,22 +1550,22 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A6" s="156">
+      <c r="A6" s="157">
         <v>1</v>
       </c>
-      <c r="B6" s="153">
+      <c r="B6" s="154">
         <v>43708</v>
       </c>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="156" t="s">
+      <c r="D6" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="162" t="s">
+      <c r="E6" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="165" t="s">
+      <c r="F6" s="148" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="61" t="s">
@@ -1583,16 +1583,16 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="157"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="157" t="s">
+      <c r="A7" s="158"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="157" t="s">
+      <c r="D7" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="166"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="149"/>
       <c r="G7" s="64" t="s">
         <v>19</v>
       </c>
@@ -1608,16 +1608,16 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="157"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="157" t="s">
+      <c r="A8" s="158"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="157" t="s">
+      <c r="D8" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="163"/>
-      <c r="F8" s="166"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="149"/>
       <c r="G8" s="64" t="s">
         <v>20</v>
       </c>
@@ -1633,16 +1633,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="157"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="157" t="s">
+      <c r="A9" s="158"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="157" t="s">
+      <c r="D9" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="163"/>
-      <c r="F9" s="166"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="149"/>
       <c r="G9" s="64" t="s">
         <v>21</v>
       </c>
@@ -1658,16 +1658,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="157"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="157" t="s">
+      <c r="A10" s="158"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="157" t="s">
+      <c r="D10" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="163"/>
-      <c r="F10" s="166"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="149"/>
       <c r="G10" s="64" t="s">
         <v>22</v>
       </c>
@@ -1683,16 +1683,16 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="157"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="157" t="s">
+      <c r="A11" s="158"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="157" t="s">
+      <c r="D11" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="163"/>
-      <c r="F11" s="166"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="149"/>
       <c r="G11" s="64" t="s">
         <v>23</v>
       </c>
@@ -1708,16 +1708,16 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="157"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="157" t="s">
+      <c r="A12" s="158"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="157" t="s">
+      <c r="D12" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="163"/>
-      <c r="F12" s="166"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="149"/>
       <c r="G12" s="64" t="s">
         <v>24</v>
       </c>
@@ -1733,16 +1733,16 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="157"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="157" t="s">
+      <c r="A13" s="158"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="157" t="s">
+      <c r="D13" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="166"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="149"/>
       <c r="G13" s="64" t="s">
         <v>25</v>
       </c>
@@ -1758,16 +1758,16 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="158"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="158" t="s">
+      <c r="A14" s="159"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="158" t="s">
+      <c r="D14" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="167"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="150"/>
       <c r="G14" s="67" t="s">
         <v>26</v>
       </c>
@@ -1784,13 +1784,13 @@
     </row>
     <row r="15" spans="1:10" s="74" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="70"/>
-      <c r="B15" s="139" t="s">
+      <c r="B15" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
       <c r="G15" s="71"/>
       <c r="H15" s="71"/>
       <c r="I15" s="72"/>
@@ -1800,19 +1800,19 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="159">
+      <c r="A16" s="141">
         <v>2</v>
       </c>
-      <c r="B16" s="153">
+      <c r="B16" s="154">
         <v>43717</v>
       </c>
-      <c r="C16" s="159" t="s">
+      <c r="C16" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="159" t="s">
+      <c r="D16" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="168" t="s">
+      <c r="E16" s="151" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="75"/>
@@ -1830,17 +1830,17 @@
       </c>
     </row>
     <row r="17" spans="1:105" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="160"/>
-      <c r="B17" s="154" t="s">
+      <c r="A17" s="142"/>
+      <c r="B17" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="160" t="s">
+      <c r="C17" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="160" t="s">
+      <c r="D17" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="169"/>
+      <c r="E17" s="152"/>
       <c r="F17" s="79"/>
       <c r="G17" s="80" t="s">
         <v>20</v>
@@ -1856,17 +1856,17 @@
       </c>
     </row>
     <row r="18" spans="1:105" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="161"/>
-      <c r="B18" s="154" t="s">
+      <c r="A18" s="143"/>
+      <c r="B18" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="161" t="s">
+      <c r="C18" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="161" t="s">
+      <c r="D18" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="170"/>
+      <c r="E18" s="153"/>
       <c r="F18" s="81"/>
       <c r="G18" s="82" t="s">
         <v>22</v>
@@ -1883,13 +1883,13 @@
     </row>
     <row r="19" spans="1:105" s="74" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="83"/>
-      <c r="B19" s="139" t="s">
+      <c r="B19" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
       <c r="G19" s="84"/>
       <c r="H19" s="85"/>
       <c r="I19" s="86"/>
@@ -1928,13 +1928,13 @@
     </row>
     <row r="21" spans="1:105" s="74" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95"/>
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
       <c r="G21" s="96"/>
       <c r="H21" s="97"/>
       <c r="I21" s="98"/>
@@ -1944,20 +1944,20 @@
       </c>
     </row>
     <row r="22" spans="1:105" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A22" s="159">
+      <c r="A22" s="141">
         <v>4</v>
       </c>
-      <c r="B22" s="153">
+      <c r="B22" s="154">
         <v>43719</v>
       </c>
-      <c r="C22" s="159" t="s">
+      <c r="C22" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="159" t="s">
+      <c r="D22" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
       <c r="G22" s="99" t="s">
         <v>35</v>
       </c>
@@ -1972,16 +1972,16 @@
       </c>
     </row>
     <row r="23" spans="1:105" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="161"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="161" t="s">
+      <c r="A23" s="143"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="161" t="s">
+      <c r="D23" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
       <c r="G23" s="82" t="s">
         <v>36</v>
       </c>
@@ -1998,13 +1998,13 @@
     </row>
     <row r="24" spans="1:105" s="74" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="102"/>
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
       <c r="G24" s="103"/>
       <c r="H24" s="71"/>
       <c r="I24" s="73"/>
@@ -2109,20 +2109,20 @@
       <c r="DA24" s="18"/>
     </row>
     <row r="25" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="156">
+      <c r="A25" s="157">
         <v>5</v>
       </c>
-      <c r="B25" s="153">
+      <c r="B25" s="154">
         <v>43796</v>
       </c>
-      <c r="C25" s="159" t="s">
+      <c r="C25" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="162" t="s">
+      <c r="D25" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="172"/>
-      <c r="F25" s="175"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="164"/>
       <c r="G25" s="77" t="s">
         <v>32</v>
       </c>
@@ -2233,12 +2233,12 @@
       <c r="DA25" s="74"/>
     </row>
     <row r="26" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="157"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="176"/>
+      <c r="A26" s="158"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="165"/>
       <c r="G26" s="64" t="s">
         <v>35</v>
       </c>
@@ -2349,12 +2349,12 @@
       <c r="DA26" s="18"/>
     </row>
     <row r="27" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="157"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="176"/>
+      <c r="A27" s="158"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="165"/>
       <c r="G27" s="64" t="s">
         <v>38</v>
       </c>
@@ -2465,12 +2465,12 @@
       <c r="DA27" s="74"/>
     </row>
     <row r="28" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="157"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="176"/>
+      <c r="A28" s="158"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="165"/>
       <c r="G28" s="64" t="s">
         <v>18</v>
       </c>
@@ -2581,12 +2581,12 @@
       <c r="DA28" s="18"/>
     </row>
     <row r="29" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="157"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="176"/>
+      <c r="A29" s="158"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="165"/>
       <c r="G29" s="64" t="s">
         <v>20</v>
       </c>
@@ -2697,12 +2697,12 @@
       <c r="DA29" s="74"/>
     </row>
     <row r="30" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="157"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="176"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="165"/>
       <c r="G30" s="64" t="s">
         <v>22</v>
       </c>
@@ -2813,12 +2813,12 @@
       <c r="DA30" s="18"/>
     </row>
     <row r="31" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="157"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="176"/>
+      <c r="A31" s="158"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="165"/>
       <c r="G31" s="64" t="s">
         <v>36</v>
       </c>
@@ -2929,12 +2929,12 @@
       <c r="DA31" s="74"/>
     </row>
     <row r="32" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="171"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="177"/>
+      <c r="A32" s="160"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="166"/>
       <c r="G32" s="108" t="s">
         <v>23</v>
       </c>
@@ -3046,13 +3046,13 @@
     </row>
     <row r="33" spans="1:105" s="111" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A33" s="110"/>
-      <c r="B33" s="139" t="s">
+      <c r="B33" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="139"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
       <c r="G33" s="71"/>
       <c r="H33" s="71"/>
       <c r="I33" s="72"/>
@@ -3282,13 +3282,13 @@
     </row>
     <row r="35" spans="1:105" s="111" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="117"/>
-      <c r="B35" s="139" t="s">
+      <c r="B35" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
       <c r="G35" s="71"/>
       <c r="H35" s="71"/>
       <c r="I35" s="72"/>
@@ -3518,13 +3518,13 @@
     </row>
     <row r="37" spans="1:105" s="111" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="117"/>
-      <c r="B37" s="139" t="s">
+      <c r="B37" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
       <c r="I37" s="72"/>
@@ -3629,20 +3629,20 @@
       <c r="DA37" s="74"/>
     </row>
     <row r="38" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="156">
+      <c r="A38" s="157">
         <v>8</v>
       </c>
-      <c r="B38" s="182">
+      <c r="B38" s="188">
         <v>43525</v>
       </c>
-      <c r="C38" s="153" t="s">
+      <c r="C38" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="153" t="s">
+      <c r="D38" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="178"/>
-      <c r="F38" s="178"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
       <c r="G38" s="64" t="s">
         <v>18</v>
       </c>
@@ -3753,14 +3753,14 @@
       <c r="DA38" s="74"/>
     </row>
     <row r="39" spans="1:105" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="171"/>
-      <c r="B39" s="155"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="155" t="s">
+      <c r="A39" s="160"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="156"/>
+      <c r="D39" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="179"/>
-      <c r="F39" s="179"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
       <c r="G39" s="108" t="s">
         <v>36</v>
       </c>
@@ -3872,13 +3872,13 @@
     </row>
     <row r="40" spans="1:105" s="111" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="121"/>
-      <c r="B40" s="139" t="s">
+      <c r="B40" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="139"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
       <c r="G40" s="71"/>
       <c r="H40" s="71"/>
       <c r="I40" s="72"/>
@@ -4108,13 +4108,13 @@
     </row>
     <row r="42" spans="1:105" s="111" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="121"/>
-      <c r="B42" s="139" t="s">
+      <c r="B42" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
       <c r="G42" s="71"/>
       <c r="H42" s="71"/>
       <c r="I42" s="72"/>
@@ -4219,17 +4219,17 @@
       <c r="DA42" s="74"/>
     </row>
     <row r="43" spans="1:105" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="144">
+      <c r="A43" s="175">
         <v>493</v>
       </c>
-      <c r="B43" s="147">
+      <c r="B43" s="178">
         <v>43654</v>
       </c>
-      <c r="C43" s="150"/>
-      <c r="D43" s="150" t="s">
+      <c r="C43" s="181"/>
+      <c r="D43" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="150"/>
+      <c r="E43" s="181"/>
       <c r="G43" s="35" t="s">
         <v>35</v>
       </c>
@@ -4245,11 +4245,11 @@
       </c>
     </row>
     <row r="44" spans="1:105" s="37" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="145"/>
-      <c r="B44" s="148"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="151"/>
+      <c r="A44" s="176"/>
+      <c r="B44" s="179"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="182"/>
       <c r="G44" s="38" t="s">
         <v>18</v>
       </c>
@@ -4265,11 +4265,11 @@
       </c>
     </row>
     <row r="45" spans="1:105" s="37" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="145"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="151"/>
-      <c r="D45" s="151"/>
-      <c r="E45" s="151"/>
+      <c r="A45" s="176"/>
+      <c r="B45" s="179"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
+      <c r="E45" s="182"/>
       <c r="G45" s="38" t="s">
         <v>20</v>
       </c>
@@ -4285,11 +4285,11 @@
       </c>
     </row>
     <row r="46" spans="1:105" s="37" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="145"/>
-      <c r="B46" s="148"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="151"/>
-      <c r="E46" s="151"/>
+      <c r="A46" s="176"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="182"/>
       <c r="G46" s="38" t="s">
         <v>22</v>
       </c>
@@ -4305,11 +4305,11 @@
       </c>
     </row>
     <row r="47" spans="1:105" s="37" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="145"/>
-      <c r="B47" s="148"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="151"/>
+      <c r="A47" s="176"/>
+      <c r="B47" s="179"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="182"/>
       <c r="G47" s="38" t="s">
         <v>36</v>
       </c>
@@ -4325,11 +4325,11 @@
       </c>
     </row>
     <row r="48" spans="1:105" s="37" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="145"/>
-      <c r="B48" s="148"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="151"/>
+      <c r="A48" s="176"/>
+      <c r="B48" s="179"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="182"/>
       <c r="G48" s="38" t="s">
         <v>25</v>
       </c>
@@ -4345,11 +4345,11 @@
       </c>
     </row>
     <row r="49" spans="1:105" s="37" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="146"/>
-      <c r="B49" s="149"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="152"/>
+      <c r="A49" s="177"/>
+      <c r="B49" s="180"/>
+      <c r="C49" s="183"/>
+      <c r="D49" s="183"/>
+      <c r="E49" s="183"/>
       <c r="G49" s="40" t="s">
         <v>50</v>
       </c>
@@ -4366,13 +4366,13 @@
     </row>
     <row r="50" spans="1:105" s="111" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="70"/>
-      <c r="B50" s="139" t="s">
+      <c r="B50" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="139"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
       <c r="G50" s="124"/>
       <c r="H50" s="71"/>
       <c r="I50" s="71"/>
@@ -4480,7 +4480,7 @@
       <c r="A51" s="135">
         <v>822</v>
       </c>
-      <c r="B51" s="137">
+      <c r="B51" s="184">
         <v>44113</v>
       </c>
       <c r="C51" s="135"/>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="52" spans="1:105" s="128" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="136"/>
-      <c r="B52" s="138"/>
+      <c r="B52" s="185"/>
       <c r="C52" s="136"/>
       <c r="D52" s="136"/>
       <c r="E52" s="136"/>
@@ -4524,13 +4524,13 @@
     </row>
     <row r="53" spans="1:105" s="111" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="70"/>
-      <c r="B53" s="139" t="s">
+      <c r="B53" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="139"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="144"/>
       <c r="G53" s="125"/>
       <c r="H53" s="71"/>
       <c r="I53" s="71"/>
@@ -4635,11 +4635,11 @@
       <c r="DA53" s="74"/>
     </row>
     <row r="54" spans="1:105" s="15" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="183" t="s">
+      <c r="A54" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="184"/>
-      <c r="C54" s="185"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="169"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -4747,9 +4747,9 @@
       <c r="DA54" s="18"/>
     </row>
     <row r="55" spans="1:105" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="186"/>
-      <c r="B55" s="187"/>
-      <c r="C55" s="188"/>
+      <c r="A55" s="170"/>
+      <c r="B55" s="171"/>
+      <c r="C55" s="172"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
@@ -5546,7 +5546,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="B50:F50"/>
     <mergeCell ref="B38:B39"/>
@@ -5558,7 +5557,16 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B21:F21"/>
@@ -5574,8 +5582,21 @@
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="E25:E32"/>
     <mergeCell ref="F25:F32"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="D6:D14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="E6:E14"/>
@@ -5583,27 +5604,6 @@
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="C43:C49"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="C6:C14"/>
-    <mergeCell ref="D6:D14"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.27" top="0.22" bottom="0.39" header="0.12" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
@@ -5612,10 +5612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F26" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5646,36 +5646,36 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="141"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="138"/>
     </row>
     <row r="5" spans="1:7" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="190" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="202" t="s">
+      <c r="D5" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
     </row>
     <row r="6" spans="1:7" s="12" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="201"/>
-      <c r="B6" s="201"/>
+      <c r="A6" s="190"/>
+      <c r="B6" s="190"/>
       <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
@@ -5693,7 +5693,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="156" t="s">
+      <c r="A7" s="145" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="88">
@@ -5716,7 +5716,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="157"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="88">
         <v>43793</v>
       </c>
@@ -5738,7 +5738,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="157"/>
+      <c r="A9" s="146"/>
       <c r="B9" s="88">
         <v>43854</v>
       </c>
@@ -5751,7 +5751,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="157"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="88">
         <v>43868</v>
       </c>
@@ -5764,7 +5764,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="157"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="88">
         <v>43881</v>
       </c>
@@ -5777,7 +5777,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="157"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="88">
         <v>43888</v>
       </c>
@@ -5790,7 +5790,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="158"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="54">
         <v>43891</v>
       </c>
@@ -5835,13 +5835,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="192">
+      <c r="A15" s="195">
         <v>494</v>
       </c>
-      <c r="B15" s="195">
+      <c r="B15" s="198">
         <v>44020</v>
       </c>
-      <c r="C15" s="198" t="s">
+      <c r="C15" s="201" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="42" t="s">
@@ -5853,14 +5853,14 @@
       <c r="F15" s="43">
         <v>235000</v>
       </c>
-      <c r="G15" s="189">
+      <c r="G15" s="192">
         <v>6600000</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="193"/>
-      <c r="B16" s="196"/>
-      <c r="C16" s="199"/>
+      <c r="A16" s="196"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="202"/>
       <c r="D16" s="45" t="s">
         <v>19</v>
       </c>
@@ -5870,12 +5870,12 @@
       <c r="F16" s="46">
         <v>245000</v>
       </c>
-      <c r="G16" s="190"/>
+      <c r="G16" s="193"/>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="194"/>
-      <c r="B17" s="197"/>
-      <c r="C17" s="200"/>
+      <c r="A17" s="197"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="203"/>
       <c r="D17" s="47" t="s">
         <v>21</v>
       </c>
@@ -5885,7 +5885,7 @@
       <c r="F17" s="48">
         <v>255000</v>
       </c>
-      <c r="G17" s="191"/>
+      <c r="G17" s="194"/>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53">
@@ -5987,8 +5987,10 @@
     </row>
     <row r="25" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="189" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="189"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -5996,8 +5998,13 @@
     </row>
     <row r="26" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="133" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="134">
+        <f>257000000+257000000*50%</f>
+        <v>385500000</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -6005,16 +6012,39 @@
     </row>
     <row r="27" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="133" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="134">
+        <f>'DOANH THU'!K73</f>
+        <v>0</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="134">
+        <f>'HÀNG TRẢ VỀ'!H40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="133" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="134">
+        <f>C26-C27+C28</f>
+        <v>385500000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -6026,16 +6056,16 @@
     <mergeCell ref="C15:C17"/>
   </mergeCells>
   <pageMargins left="1.08" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:G11"/>
+  <dimension ref="A6:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6048,19 +6078,13 @@
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="203" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="189" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="203"/>
-      <c r="E6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="189"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="133" t="s">
         <v>68</v>
       </c>
@@ -6068,14 +6092,8 @@
         <f>257000000+257000000*50%</f>
         <v>385500000</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="132">
-        <v>361130000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="133" t="s">
         <v>56</v>
       </c>
@@ -6083,14 +6101,8 @@
         <f>'DOANH THU'!J54</f>
         <v>369330000</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="132">
-        <v>86370000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="133" t="s">
         <v>57</v>
       </c>
@@ -6098,11 +6110,8 @@
         <f>'HÀNG TRẢ VỀ'!G21</f>
         <v>92190000</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="133" t="s">
         <v>58</v>
       </c>
@@ -6110,19 +6119,54 @@
         <f>B7-B8+B9</f>
         <v>108360000</v>
       </c>
-      <c r="F10" s="4" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="132"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="132">
+        <v>361130000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="132">
+        <v>86370000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="132"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="132">
+      <c r="B21" s="132">
         <f>'DOANH THU'!J53</f>
         <v>8160000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="4" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="132">
+      <c r="B22" s="132">
         <f>'HÀNG TRẢ VỀ'!G20</f>
         <v>5820000</v>
       </c>
@@ -6132,6 +6176,6 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>